--- a/yös_signUp.xlsx
+++ b/yös_signUp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>YourName</t>
   </si>
@@ -139,6 +139,60 @@
   </si>
   <si>
     <t>1,AaoqcW31C4X</t>
+  </si>
+  <si>
+    <t>Clifton Pansy Jaga</t>
+  </si>
+  <si>
+    <t>Pansy</t>
+  </si>
+  <si>
+    <t>Arlie</t>
+  </si>
+  <si>
+    <t>Frankie@mail.com</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>arhxwgucs</t>
+  </si>
+  <si>
+    <t>1A,SZ9&gt;O&amp;1&amp;}5K1-&amp;</t>
+  </si>
+  <si>
+    <t>1a&amp;kpqlk6y</t>
+  </si>
+  <si>
+    <t>1AaTfsYi4KtCHHW8k</t>
+  </si>
+  <si>
+    <t>csHoKE$TBq8120!u%alV{</t>
+  </si>
+  <si>
+    <t>1,Aa%MMF?SOw&gt;yA%}</t>
+  </si>
+  <si>
+    <t>cre</t>
+  </si>
+  <si>
+    <t>acdjkozoiagftm</t>
+  </si>
+  <si>
+    <t>1A,XFTFPY3H7U</t>
+  </si>
+  <si>
+    <t>1aizi2uo345p</t>
+  </si>
+  <si>
+    <t>1aAtFwqsbhEW6jo6H</t>
+  </si>
+  <si>
+    <t>N1RidOs-bS6{NtZPDe-oY?</t>
+  </si>
+  <si>
+    <t>1,AairG?1}h{?BeNa</t>
   </si>
 </sst>
 </file>
@@ -521,12 +575,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -536,12 +590,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -551,37 +605,37 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -591,42 +645,42 @@
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
